--- a/src/main/resources/FFQRDatabase.xlsx
+++ b/src/main/resources/FFQRDatabase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauro\Desktop\BabyFeed\ffq-food-item-service\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\demo\ffq-food-item-service-master\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1087D134-BCE4-4131-80E6-3E60D01BD50F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2499C6E6-7E5B-43BC-9DD4-A85EE8005CEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,9 +366,6 @@
   </si>
   <si>
     <t>Breastmilk</t>
-  </si>
-  <si>
-    <t>Formula</t>
   </si>
   <si>
     <t>Water</t>
@@ -922,6 +919,9 @@
   <si>
     <t>Vitamin B9 (Folate) (mcg)</t>
   </si>
+  <si>
+    <t>Infant formula</t>
+  </si>
 </sst>
 </file>
 
@@ -965,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -981,6 +981,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1309,10 +1314,10 @@
   <dimension ref="A1:GI86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1489,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1498,13 +1503,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -1570,13 +1575,13 @@
         <v>23</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>25</v>
@@ -1588,31 +1593,31 @@
         <v>27</v>
       </c>
       <c r="AI1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AO1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="AR1" s="2" t="s">
         <v>28</v>
@@ -1753,7 +1758,7 @@
         <v>73</v>
       </c>
       <c r="CL1" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="CM1" s="2" t="s">
         <v>74</v>
@@ -1940,7 +1945,7 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2">
         <v>1.04</v>
@@ -2386,463 +2391,463 @@
       <c r="GH2" s="4"/>
       <c r="GI2" s="4"/>
     </row>
-    <row r="3" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="2">
-        <v>30.7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>27.4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>99.2</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>29.7</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="AK3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="AQ3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AR3" s="2">
-        <v>25.8</v>
-      </c>
-      <c r="AS3" s="2">
-        <v>14.7</v>
-      </c>
-      <c r="AT3" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="AU3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AW3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AY3" s="2">
-        <v>10.8</v>
-      </c>
-      <c r="AZ3" s="2">
-        <v>30.1</v>
-      </c>
-      <c r="BA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BE3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BO3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BP3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV3" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="BW3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BX3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CA3" s="2">
-        <v>25.5</v>
-      </c>
-      <c r="CB3" s="2">
-        <v>29.7</v>
-      </c>
-      <c r="CC3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="CJ3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="CK3" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="CL3" s="2">
-        <v>29.7</v>
-      </c>
-      <c r="CM3" s="2">
-        <v>114.7</v>
-      </c>
-      <c r="CN3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CO3" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="CP3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="CS3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CT3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="CU3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CV3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CW3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CX3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CY3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CZ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA3" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="DB3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DD3" s="2">
-        <v>3</v>
-      </c>
-      <c r="DE3" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="DF3" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="DG3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DH3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DI3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DJ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DL3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DM3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DN3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DO3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DP3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="DQ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DR3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="DT3" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="DU3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DV3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DW3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DX3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DY3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="DZ3" s="2"/>
-      <c r="EA3" s="2"/>
-      <c r="EB3" s="2"/>
-      <c r="EC3" s="2"/>
-      <c r="ED3" s="2"/>
-      <c r="EE3" s="2"/>
-      <c r="EF3" s="2"/>
-      <c r="EG3" s="2"/>
-      <c r="EH3" s="2"/>
-      <c r="EI3" s="2"/>
-      <c r="EJ3" s="2"/>
-      <c r="EK3" s="2"/>
-      <c r="EL3" s="2"/>
-      <c r="EM3" s="2"/>
-      <c r="EN3" s="2"/>
-      <c r="EO3" s="2"/>
-      <c r="EP3" s="2"/>
-      <c r="EQ3" s="2"/>
-      <c r="ER3" s="2"/>
-      <c r="ES3" s="2"/>
-      <c r="ET3" s="2"/>
-      <c r="EU3" s="2"/>
-      <c r="EV3" s="2"/>
-      <c r="EW3" s="2"/>
-      <c r="EX3" s="2"/>
-      <c r="EY3" s="2"/>
-      <c r="EZ3" s="2"/>
-      <c r="FA3" s="2"/>
-      <c r="FB3" s="2"/>
-      <c r="FC3" s="2"/>
-      <c r="FD3" s="2"/>
-      <c r="FE3" s="2"/>
-      <c r="FF3" s="2"/>
-      <c r="FG3" s="2"/>
-      <c r="FH3" s="2"/>
-      <c r="FI3" s="2"/>
-      <c r="FJ3" s="2"/>
-      <c r="FK3" s="2"/>
-      <c r="FL3" s="2"/>
-      <c r="FM3" s="2"/>
-      <c r="FN3" s="2"/>
-      <c r="FO3" s="2"/>
-      <c r="FP3" s="4"/>
-      <c r="FQ3" s="4"/>
-      <c r="FR3" s="4"/>
-      <c r="FS3" s="4"/>
-      <c r="FT3" s="4"/>
-      <c r="FU3" s="4"/>
-      <c r="FV3" s="4"/>
-      <c r="FW3" s="4"/>
-      <c r="FX3" s="4"/>
-      <c r="FY3" s="4"/>
-      <c r="FZ3" s="4"/>
-      <c r="GA3" s="4"/>
-      <c r="GB3" s="4"/>
-      <c r="GC3" s="4"/>
-      <c r="GD3" s="4"/>
-      <c r="GE3" s="4"/>
-      <c r="GF3" s="4"/>
-      <c r="GG3" s="4"/>
-      <c r="GH3" s="4"/>
-      <c r="GI3" s="4"/>
+    <row r="3" spans="1:191" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="7">
+        <v>30.46</v>
+      </c>
+      <c r="D3" s="7">
+        <v>20.09</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="I3" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="W3" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="X3" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>69.256</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>20.763999999999999</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>0.183</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>2.226</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>0.107</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>3.339</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>18.244</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>10.436</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>0.183</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="AY3" s="7">
+        <v>7.7350000000000003</v>
+      </c>
+      <c r="AZ3" s="7">
+        <v>21.916</v>
+      </c>
+      <c r="BA3" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BB3" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BC3" s="7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="BE3" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="BF3" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="BG3" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="BH3" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="BI3" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="BJ3" s="7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="BK3" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="BL3" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="BM3" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="BN3" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="BO3" s="7">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="BP3" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BQ3" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="BR3" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BS3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="7">
+        <v>1.012</v>
+      </c>
+      <c r="BW3" s="7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="BX3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="7">
+        <v>0.113</v>
+      </c>
+      <c r="CA3" s="7">
+        <v>26.667597826087</v>
+      </c>
+      <c r="CB3" s="7">
+        <v>20.765000000000001</v>
+      </c>
+      <c r="CC3" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="CD3" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="CE3" s="7">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="7">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="7">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="7">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="7">
+        <v>5.4119999999999999</v>
+      </c>
+      <c r="CJ3" s="7">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="CK3" s="7">
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="CL3" s="7">
+        <v>20.763999999999999</v>
+      </c>
+      <c r="CM3" s="7">
+        <v>84.052000000000007</v>
+      </c>
+      <c r="CN3" s="7">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="CO3" s="7">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="CP3" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="CQ3" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="CR3" s="7">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="CS3" s="7">
+        <v>0.127</v>
+      </c>
+      <c r="CT3" s="7">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="CU3" s="7">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="CW3" s="7">
+        <v>0</v>
+      </c>
+      <c r="CX3" s="7">
+        <v>0</v>
+      </c>
+      <c r="CY3" s="7">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DA3" s="7">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="DB3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="7">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="DE3" s="7">
+        <v>4.1820000000000004</v>
+      </c>
+      <c r="DF3" s="7">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="DG3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DI3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DL3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DM3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DN3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DO3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DP3" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="DQ3" s="7">
+        <v>0.106</v>
+      </c>
+      <c r="DR3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="7">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="DT3" s="7">
+        <v>0.877</v>
+      </c>
+      <c r="DU3" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="DV3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DW3" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="DX3" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="DY3" s="7">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="DZ3" s="7"/>
+      <c r="EA3" s="7"/>
+      <c r="EB3" s="7"/>
+      <c r="EC3" s="7"/>
+      <c r="ED3" s="7"/>
+      <c r="EE3" s="7"/>
+      <c r="EF3" s="7"/>
+      <c r="EG3" s="7"/>
+      <c r="EH3" s="7"/>
+      <c r="EI3" s="7"/>
+      <c r="EJ3" s="7"/>
+      <c r="EK3" s="7"/>
+      <c r="EL3" s="7"/>
+      <c r="EM3" s="7"/>
+      <c r="EN3" s="7"/>
+      <c r="EO3" s="7"/>
+      <c r="EP3" s="7"/>
+      <c r="EQ3" s="7"/>
+      <c r="ER3" s="7"/>
+      <c r="ES3" s="7"/>
+      <c r="ET3" s="7"/>
+      <c r="EU3" s="7"/>
+      <c r="EV3" s="7"/>
+      <c r="EW3" s="7"/>
+      <c r="EX3" s="7"/>
+      <c r="EY3" s="7"/>
+      <c r="EZ3" s="7"/>
+      <c r="FA3" s="7"/>
+      <c r="FB3" s="7"/>
+      <c r="FC3" s="7"/>
+      <c r="FD3" s="7"/>
+      <c r="FE3" s="7"/>
+      <c r="FF3" s="7"/>
+      <c r="FG3" s="7"/>
+      <c r="FH3" s="7"/>
+      <c r="FI3" s="7"/>
+      <c r="FJ3" s="7"/>
+      <c r="FK3" s="7"/>
+      <c r="FL3" s="7"/>
+      <c r="FM3" s="7"/>
+      <c r="FN3" s="7"/>
+      <c r="FO3" s="7"/>
+      <c r="FP3" s="8"/>
+      <c r="FQ3" s="8"/>
+      <c r="FR3" s="8"/>
+      <c r="FS3" s="8"/>
+      <c r="FT3" s="8"/>
+      <c r="FU3" s="8"/>
+      <c r="FV3" s="8"/>
+      <c r="FW3" s="8"/>
+      <c r="FX3" s="8"/>
+      <c r="FY3" s="8"/>
+      <c r="FZ3" s="8"/>
+      <c r="GA3" s="8"/>
+      <c r="GB3" s="8"/>
+      <c r="GC3" s="8"/>
+      <c r="GD3" s="8"/>
+      <c r="GE3" s="8"/>
+      <c r="GF3" s="8"/>
+      <c r="GG3" s="8"/>
+      <c r="GH3" s="8"/>
+      <c r="GI3" s="8"/>
     </row>
     <row r="4" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -3290,10 +3295,10 @@
     </row>
     <row r="5" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="2">
         <v>29.6</v>
@@ -3741,10 +3746,10 @@
     </row>
     <row r="6" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="2">
         <v>30.5</v>
@@ -4192,10 +4197,10 @@
     </row>
     <row r="7" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" s="2">
         <v>31.3</v>
@@ -4643,10 +4648,10 @@
     </row>
     <row r="8" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="2">
         <v>30.2</v>
@@ -5094,10 +5099,10 @@
     </row>
     <row r="9" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2">
         <v>25.2</v>
@@ -5545,10 +5550,10 @@
     </row>
     <row r="10" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="2">
         <v>29.5</v>
@@ -5996,10 +6001,10 @@
     </row>
     <row r="11" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2">
         <v>113.4</v>
@@ -6447,10 +6452,10 @@
     </row>
     <row r="12" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="2">
         <v>28.4</v>
@@ -6898,10 +6903,10 @@
     </row>
     <row r="13" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" s="2">
         <v>31.1</v>
@@ -7349,10 +7354,10 @@
     </row>
     <row r="14" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" s="2">
         <v>31.3</v>
@@ -7800,10 +7805,10 @@
     </row>
     <row r="15" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C15" s="2">
         <v>30.1</v>
@@ -8251,10 +8256,10 @@
     </row>
     <row r="16" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C16" s="2">
         <v>29</v>
@@ -8702,10 +8707,10 @@
     </row>
     <row r="17" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="2">
         <v>28.4</v>
@@ -9153,10 +9158,10 @@
     </row>
     <row r="18" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2">
         <v>30.7</v>
@@ -9604,10 +9609,10 @@
     </row>
     <row r="19" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2">
         <v>30.5</v>
@@ -10055,10 +10060,10 @@
     </row>
     <row r="20" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2">
         <v>30.7</v>
@@ -10506,10 +10511,10 @@
     </row>
     <row r="21" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2">
         <v>28.4</v>
@@ -10957,10 +10962,10 @@
     </row>
     <row r="22" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2">
         <v>28.4</v>
@@ -11408,10 +11413,10 @@
     </row>
     <row r="23" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2">
         <v>4.2</v>
@@ -11859,10 +11864,10 @@
     </row>
     <row r="24" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2">
         <v>28.4</v>
@@ -12310,10 +12315,10 @@
     </row>
     <row r="25" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2">
         <v>28.4</v>
@@ -12761,10 +12766,10 @@
     </row>
     <row r="26" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="2">
         <v>28.4</v>
@@ -13212,10 +13217,10 @@
     </row>
     <row r="27" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" s="2">
         <v>28.4</v>
@@ -13663,10 +13668,10 @@
     </row>
     <row r="28" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2">
         <v>35.1</v>
@@ -14114,10 +14119,10 @@
     </row>
     <row r="29" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C29" s="2">
         <v>40.299999999999997</v>
@@ -14565,10 +14570,10 @@
     </row>
     <row r="30" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2">
         <v>45.8</v>
@@ -15016,10 +15021,10 @@
     </row>
     <row r="31" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2">
         <v>49.7</v>
@@ -15467,10 +15472,10 @@
     </row>
     <row r="32" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="2">
         <v>4.5999999999999996</v>
@@ -15918,10 +15923,10 @@
     </row>
     <row r="33" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
@@ -16369,10 +16374,10 @@
     </row>
     <row r="34" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" s="2">
         <v>91.9</v>
@@ -16820,10 +16825,10 @@
     </row>
     <row r="35" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C35" s="2">
         <v>28.4</v>
@@ -17271,10 +17276,10 @@
     </row>
     <row r="36" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="2">
         <v>28.4</v>
@@ -17722,10 +17727,10 @@
     </row>
     <row r="37" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="2">
         <v>30</v>
@@ -18173,10 +18178,10 @@
     </row>
     <row r="38" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C38" s="2">
         <v>28.4</v>
@@ -18624,10 +18629,10 @@
     </row>
     <row r="39" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C39" s="2">
         <v>28.4</v>
@@ -19075,10 +19080,10 @@
     </row>
     <row r="40" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C40" s="2">
         <v>28.4</v>
@@ -19526,10 +19531,10 @@
     </row>
     <row r="41" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C41" s="2">
         <v>28.4</v>
@@ -19977,10 +19982,10 @@
     </row>
     <row r="42" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42" s="2">
         <v>28.4</v>
@@ -20428,10 +20433,10 @@
     </row>
     <row r="43" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="2">
         <v>28.4</v>
@@ -20879,10 +20884,10 @@
     </row>
     <row r="44" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C44" s="2">
         <v>28.4</v>
@@ -21330,10 +21335,10 @@
     </row>
     <row r="45" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C45" s="2">
         <v>28.4</v>
@@ -21781,10 +21786,10 @@
     </row>
     <row r="46" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C46" s="2">
         <v>28.4</v>
@@ -22232,10 +22237,10 @@
     </row>
     <row r="47" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C47" s="2">
         <v>28.4</v>
@@ -22683,10 +22688,10 @@
     </row>
     <row r="48" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C48" s="2">
         <v>28.4</v>
@@ -23134,10 +23139,10 @@
     </row>
     <row r="49" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C49" s="2">
         <v>28.4</v>
@@ -23585,10 +23590,10 @@
     </row>
     <row r="50" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C50" s="2">
         <v>28.4</v>
@@ -24036,10 +24041,10 @@
     </row>
     <row r="51" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C51" s="2">
         <v>28.4</v>
@@ -24487,10 +24492,10 @@
     </row>
     <row r="52" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C52" s="2">
         <v>28.4</v>
@@ -24938,10 +24943,10 @@
     </row>
     <row r="53" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C53" s="2">
         <v>28.4</v>
@@ -25389,10 +25394,10 @@
     </row>
     <row r="54" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C54" s="2">
         <v>28.4</v>
@@ -25840,10 +25845,10 @@
     </row>
     <row r="55" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C55" s="2">
         <v>28.4</v>
@@ -26291,10 +26296,10 @@
     </row>
     <row r="56" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C56" s="2">
         <v>28.4</v>
@@ -26742,10 +26747,10 @@
     </row>
     <row r="57" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C57" s="2">
         <v>28.4</v>
@@ -27193,10 +27198,10 @@
     </row>
     <row r="58" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C58" s="2">
         <v>28.4</v>
@@ -27644,10 +27649,10 @@
     </row>
     <row r="59" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C59" s="2">
         <v>28.4</v>
@@ -28095,10 +28100,10 @@
     </row>
     <row r="60" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C60" s="2">
         <v>28.4</v>
@@ -28546,10 +28551,10 @@
     </row>
     <row r="61" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C61" s="2">
         <v>28.4</v>
@@ -28997,10 +29002,10 @@
     </row>
     <row r="62" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C62" s="2">
         <v>28.4</v>
@@ -29448,10 +29453,10 @@
     </row>
     <row r="63" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C63" s="2">
         <v>28.4</v>
@@ -29899,10 +29904,10 @@
     </row>
     <row r="64" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C64" s="2">
         <v>28.4</v>
@@ -30350,10 +30355,10 @@
     </row>
     <row r="65" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C65" s="2">
         <v>28.4</v>
@@ -30801,10 +30806,10 @@
     </row>
     <row r="66" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C66" s="2">
         <v>28.4</v>
@@ -31252,10 +31257,10 @@
     </row>
     <row r="67" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C67" s="2">
         <v>28.4</v>
@@ -31703,10 +31708,10 @@
     </row>
     <row r="68" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C68" s="2">
         <v>28.4</v>
@@ -32154,10 +32159,10 @@
     </row>
     <row r="69" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C69" s="2">
         <v>28.4</v>
@@ -32605,10 +32610,10 @@
     </row>
     <row r="70" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C70" s="2">
         <v>28.4</v>
@@ -33056,10 +33061,10 @@
     </row>
     <row r="71" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C71" s="2">
         <v>28.4</v>
@@ -33507,10 +33512,10 @@
     </row>
     <row r="72" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C72" s="2">
         <v>28.4</v>
@@ -33958,10 +33963,10 @@
     </row>
     <row r="73" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C73" s="2">
         <v>28.4</v>
@@ -34409,10 +34414,10 @@
     </row>
     <row r="74" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C74" s="2">
         <v>28.4</v>
@@ -34860,10 +34865,10 @@
     </row>
     <row r="75" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C75" s="2">
         <v>28.4</v>
@@ -35311,10 +35316,10 @@
     </row>
     <row r="76" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C76" s="2">
         <v>28.4</v>
@@ -35762,10 +35767,10 @@
     </row>
     <row r="77" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C77" s="2">
         <v>43.3</v>
@@ -36213,10 +36218,10 @@
     </row>
     <row r="78" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C78" s="2">
         <v>28.4</v>
@@ -36664,10 +36669,10 @@
     </row>
     <row r="79" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C79" s="2">
         <v>26.2</v>
@@ -37115,10 +37120,10 @@
     </row>
     <row r="80" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C80" s="2">
         <v>59.4</v>
@@ -37566,10 +37571,10 @@
     </row>
     <row r="81" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C81" s="2">
         <v>10.8</v>
@@ -38017,10 +38022,10 @@
     </row>
     <row r="82" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C82" s="2">
         <v>6.8</v>
@@ -38468,10 +38473,10 @@
     </row>
     <row r="83" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C83" s="2">
         <v>28.4</v>
@@ -38919,10 +38924,10 @@
     </row>
     <row r="84" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C84" s="2">
         <v>4.7</v>
@@ -39370,10 +39375,10 @@
     </row>
     <row r="85" spans="1:191" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C85" s="6">
         <v>4.5</v>
@@ -39759,10 +39764,10 @@
     </row>
     <row r="86" spans="1:191" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="C86" s="2">
         <v>31</v>
